--- a/results/Before 1st sem without tuition_cv_1.xlsx
+++ b/results/Before 1st sem without tuition_cv_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Model</t>
   </si>
@@ -34,22 +34,7 @@
     <t>Logistic Regression</t>
   </si>
   <si>
-    <t>Lasso</t>
-  </si>
-  <si>
-    <t>Support Vector Classifier</t>
-  </si>
-  <si>
-    <t>CART</t>
-  </si>
-  <si>
-    <t>Random Forest</t>
-  </si>
-  <si>
     <t>LightGBM</t>
-  </si>
-  <si>
-    <t>XGBoost</t>
   </si>
 </sst>
 </file>
@@ -407,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,16 +420,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.7236914600550963</v>
+        <v>0.7239669421487602</v>
       </c>
       <c r="C2">
-        <v>0.7227349661313853</v>
+        <v>0.7230019698031925</v>
       </c>
       <c r="D2">
-        <v>0.7236914600550963</v>
+        <v>0.7239669421487602</v>
       </c>
       <c r="E2">
-        <v>0.71407755175082</v>
+        <v>0.7143325515584248</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -452,101 +437,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.7173553719008264</v>
+        <v>0.7606060606060606</v>
       </c>
       <c r="C3">
-        <v>0.7161005774736121</v>
+        <v>0.7597953509291424</v>
       </c>
       <c r="D3">
-        <v>0.7173553719008264</v>
+        <v>0.7606060606060606</v>
       </c>
       <c r="E3">
-        <v>0.7089996580851076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0.6889807162534436</v>
-      </c>
-      <c r="C4">
-        <v>0.6826854822694587</v>
-      </c>
-      <c r="D4">
-        <v>0.6889807162534436</v>
-      </c>
-      <c r="E4">
-        <v>0.6742018149679077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.6840220385674931</v>
-      </c>
-      <c r="C5">
-        <v>0.6865141181071179</v>
-      </c>
-      <c r="D5">
-        <v>0.6840220385674931</v>
-      </c>
-      <c r="E5">
-        <v>0.6841669901396983</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0.750137741046832</v>
-      </c>
-      <c r="C6">
-        <v>0.7497498813962526</v>
-      </c>
-      <c r="D6">
-        <v>0.750137741046832</v>
-      </c>
-      <c r="E6">
-        <v>0.7469915502528076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0.7606060606060606</v>
-      </c>
-      <c r="C7">
-        <v>0.7597953509291424</v>
-      </c>
-      <c r="D7">
-        <v>0.7606060606060606</v>
-      </c>
-      <c r="E7">
         <v>0.7577348917220179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0.7443526170798899</v>
-      </c>
-      <c r="C8">
-        <v>0.7432680090052193</v>
-      </c>
-      <c r="D8">
-        <v>0.7443526170798899</v>
-      </c>
-      <c r="E8">
-        <v>0.7416333241360865</v>
       </c>
     </row>
   </sheetData>
